--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2074.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2074.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.15512989363079</v>
+        <v>1.242630004882812</v>
       </c>
       <c r="B1">
-        <v>3.308439167429232</v>
+        <v>3.850899934768677</v>
       </c>
       <c r="C1">
-        <v>4.002975439599824</v>
+        <v>3.570510149002075</v>
       </c>
       <c r="D1">
-        <v>3.425966825150259</v>
+        <v>3.587673187255859</v>
       </c>
       <c r="E1">
-        <v>1.194698902797771</v>
+        <v>1.092154383659363</v>
       </c>
     </row>
   </sheetData>
